--- a/conversation/Past-Simple.xlsx
+++ b/conversation/Past-Simple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\เบ็ดเตล็ด\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EC4EF1-875F-496A-99A9-828AA5F3B5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB0978B-9C2B-43C1-88DD-2A510D076924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{689C561B-C729-4F8B-9A5C-3D5BDC676F3F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -53,9 +53,6 @@
     <t>That's impressive. Does she have a good chance of getting in?</t>
   </si>
   <si>
-    <t>Wow, that sounds delicious! Do you usually eat that much breakfast?</t>
-  </si>
-  <si>
     <t>That's sweet. Has she been busy lately?</t>
   </si>
   <si>
@@ -65,27 +62,15 @@
     <t>Yeah, it's really good! You should give it a try.</t>
   </si>
   <si>
-    <t>That sounds like a relaxing vacation. Did you enjoy yourself?</t>
-  </si>
-  <si>
     <t>That sounds fun! Did you get tired easily?</t>
   </si>
   <si>
     <t>That's great! What was the subject?</t>
   </si>
   <si>
-    <t>Yes, she made a chocolate cake for dessert.</t>
-  </si>
-  <si>
     <t>Not yet, but I'm close.</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>bored</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -101,25 +86,1127 @@
     <t>hung</t>
   </si>
   <si>
-    <t>studied</t>
-  </si>
-  <si>
-    <t>studying</t>
-  </si>
-  <si>
     <t>prepared</t>
   </si>
   <si>
     <t>preparing</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I was so </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>had</t>
+  </si>
+  <si>
+    <t>resisted</t>
+  </si>
+  <si>
+    <t>resist</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>drove</t>
+  </si>
+  <si>
+    <t>wasn't</t>
+  </si>
+  <si>
+    <t>haven't</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>helped</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>visiting</t>
+  </si>
+  <si>
+    <t>visited</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>played</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>cooked</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That sounds like fun! What </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you do after that?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> out with them for a bit longer and then we all went our separate ways.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">gone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to see the new Marvel movie on last Friday. It was awesome, we loved it!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I've been wanting to see that. How </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the special effects?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>No, but my grandma made them for me so I couldn't</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> resisted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We went on a road trip with our family last weekend. We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">drive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all the way to Yellowstone National Park and back.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>That sounds like a great trip! What</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> some of the highlights?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> some amazing scenery and went on a few hikes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wasn't</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Is it any good?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My mom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>taken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a photo of her birthday cake yesterday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visiting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> my grandparents in Florida last weekend. We went to the beach every day and even went on a boat tour.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yeah, it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>were</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> really nice to get away and relax.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We went to the beach last summer. The water was cold, but we still had a lot of fun. We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sandcastles and played volleyball.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That sounds like a lot of fun! Did you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>got</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sunburned?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, I got a bit sunburned, but it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>were</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worth it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I went to the park yesterday. The weather was nice and sunny. We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>playing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> soccer for a few hours.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yeah, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>were</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> getting a bit tired by the end, but it was worth it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>were</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> biology. She really loves that subject.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We went to the movies on Friday night. The movie was really good, but a bit long. We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after two hours.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My mom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cooks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dinner for us last night. She made my favorite dish, pasta with tomato sauce. It tasted delicious.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I visited my friend's house last weekend. We played video games for hours and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a lot of fun. His new game is really cool.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, she </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a chocolate cake for dessert.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>were</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, so I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decided</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to go to the park yesterday. I played soccer with my friends and we even got a game going.</t>
+    </r>
+  </si>
+  <si>
+    <t>spent</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My sister </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hours </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>studied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for her exam. She's trying to get into medical school, so she's been studying really hard.</t>
+    </r>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a huge breakfast this morning, it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> literally the biggest plate of pancakes I've ever seen. It had butter and syrup on it.</t>
+    </r>
+  </si>
+  <si>
+    <t>Did</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wow, that sounds delicious! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Did</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you usually eat that much breakfast?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wrote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>me a really nice letter last week. She said she was thinking about me and missed me.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's nice. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>helped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plan the party?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yeah, I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it with my mom and siblings.</t>
+    </r>
+  </si>
+  <si>
+    <t>Are</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That sounds like a relaxing vacation. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you enjoy yourself?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My sister </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hard for her exam last week. She </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preparing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for months and felt confident. She got an A on the exam.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The plot was good, but there</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> some</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -135,89 +1222,153 @@
         <charset val="222"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, so I decided to go to the park. I played soccer with my friends and we even got a game going.</t>
-    </r>
-  </si>
-  <si>
-    <t>gone</t>
-  </si>
-  <si>
-    <t>went</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>amazed</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>had</t>
-  </si>
-  <si>
-    <t>resisted</t>
-  </si>
-  <si>
-    <t>resist</t>
-  </si>
-  <si>
-    <t>written</t>
-  </si>
-  <si>
-    <t>wrote</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>seen</t>
-  </si>
-  <si>
-    <t>saw</t>
-  </si>
-  <si>
-    <t>drive</t>
-  </si>
-  <si>
-    <t>drove</t>
-  </si>
-  <si>
-    <t>wasn't</t>
-  </si>
-  <si>
-    <t>haven't</t>
-  </si>
-  <si>
-    <t>taken</t>
-  </si>
-  <si>
-    <t>took</t>
-  </si>
-  <si>
-    <t>helped</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>planed</t>
-  </si>
-  <si>
-    <t>visiting</t>
-  </si>
-  <si>
-    <t>visited</t>
+      <t xml:space="preserve"> parts.</t>
+    </r>
+  </si>
+  <si>
+    <t>Does</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That sounds yummy! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Does</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> she </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> any dessert too?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That sounds like a great time! Have you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beaten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the game yet?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She's been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prepared</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for months, so I think she has a pretty good shot.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The special effects </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amazing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! The visuals were incredible.</t>
+    </r>
   </si>
   <si>
     <t>build</t>
@@ -226,72 +1377,66 @@
     <t>built</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>played</t>
-  </si>
-  <si>
-    <t>studies</t>
-  </si>
-  <si>
-    <t>leave</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>cooked</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>beat</t>
-  </si>
-  <si>
-    <t>beaten</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">That sounds like fun! What </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>do</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> you do after that?</t>
-    </r>
+    <r>
+      <t>I've been wanting to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>see</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that movie. How</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the plot?</t>
+    </r>
+  </si>
+  <si>
+    <t>binge-watched</t>
+  </si>
+  <si>
+    <t>binge-watching</t>
   </si>
   <si>
     <r>
@@ -305,288 +1450,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>hang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> out with them for a bit longer and then we all went our separate ways.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">My sister spent hours </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>studied</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for her exam. She's trying to get into medical school, so she's been studying really hard.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She's been </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prepared</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for months, so I think she has a pretty good shot.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">gone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to see the new Marvel movie on last Friday. It was awesome, we loved it!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I've been wanting to see that. How </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>are</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the special effects?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The special effects were </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amazed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>! The visuals were incredible.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>have</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a huge breakfast this morning, it was literally the biggest plate of pancakes I've ever seen. It had butter and syrup on it.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>No, but my grandma made them for me so I couldn't</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> resisted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">written </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>me a really nice letter last week. She said she was thinking about me and missed me.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We went on a road trip with our family last weekend. We </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">drive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>all the way to Yellowstone National Park and back.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>That sounds like a great trip! What</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> some of the highlights?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>binge-watching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that new show "Stranger Things" last night. Have you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -602,561 +1481,27 @@
         <charset val="222"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> some amazing scenery and went on a few hikes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I binge-watched that new show "Stranger Things" last night. Have you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>saw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> it?</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">No, I </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wasn't</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Is it any good?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">My mom </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>taken</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a photo of her birthday cake yesterday.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">That's nice. Did you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>helped</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> plan the party?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yeah, I helped </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>planed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it with my mom and siblings.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>visiting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> my grandparents in Florida last weekend. We went to the beach every day and even went on a boat tour.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yeah, it </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>were</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> really nice to get away and relax.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We went to the beach last summer. The water was cold, but we still had a lot of fun. We </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sandcastles and played volleyball.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">That sounds like a lot of fun! Did you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>got</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sunburned?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yes, I got a bit sunburned, but it </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>were</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> worth it.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I went to the park yesterday. The weather was nice and sunny. We </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>playing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> soccer for a few hours.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yeah, I </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>were</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> getting a bit tired by the end, but it was worth it.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">My sister </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>studies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hard for her exam last week. She prepared for months and felt confident. She got an A on the exam.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>were</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> biology. She really loves that subject.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We went to the movies on Friday night. The movie was really good, but a bit long. We </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> after two hours.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I've been wanting to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> saw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that movie. How was the plot?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The plot was good, but there were some</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bored</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> parts.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">My mom </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cooks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dinner for us last night. She made my favorite dish, pasta with tomato sauce. It tasted delicious.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">That sounds yummy! Did she </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>made</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> any dessert too?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I visited my friend's house last weekend. We played video games for hours and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>have</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a lot of fun. His new game is really cool.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">That sounds like a great time! Have you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>beat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the game yet?</t>
-    </r>
+    <t>error type</t>
+  </si>
+  <si>
+    <t>Grammar structure</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>No-error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1657,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1498,7 +1856,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1613,6 +1971,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1658,12 +2096,39 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2041,20 +2506,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0262A93E-D9F5-496F-A9AD-80A6B1082B48}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="2"/>
     <col min="3" max="3" width="40.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="2"/>
+    <col min="4" max="4" width="14.08203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2070,9 +2538,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2080,16 +2550,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <f>COUNTIF(F:F, 1)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2097,16 +2580,29 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6">
+        <f>COUNTIF(F:F, 2)</f>
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2114,16 +2610,29 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8">
+        <f>COUNTIF(F:F, 3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2131,16 +2640,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2151,13 +2663,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2165,16 +2680,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2182,16 +2700,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2199,16 +2720,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -2216,16 +2740,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -2236,13 +2763,16 @@
         <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -2250,16 +2780,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -2267,16 +2800,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -2284,16 +2820,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -2301,16 +2840,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -2318,16 +2860,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -2335,16 +2880,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -2352,16 +2900,19 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -2369,16 +2920,19 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -2386,16 +2940,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -2403,16 +2960,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -2420,16 +2980,19 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>8</v>
       </c>
@@ -2437,16 +3000,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -2454,16 +3020,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -2471,16 +3040,19 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -2488,16 +3060,19 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>9</v>
       </c>
@@ -2505,16 +3080,19 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>9</v>
       </c>
@@ -2522,16 +3100,19 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>10</v>
       </c>
@@ -2539,16 +3120,19 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>10</v>
       </c>
@@ -2556,16 +3140,19 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>10</v>
       </c>
@@ -2573,16 +3160,19 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>11</v>
       </c>
@@ -2590,16 +3180,19 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>11</v>
       </c>
@@ -2607,16 +3200,19 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>11</v>
       </c>
@@ -2624,16 +3220,19 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>12</v>
       </c>
@@ -2641,16 +3240,19 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>12</v>
       </c>
@@ -2658,16 +3260,19 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>12</v>
       </c>
@@ -2675,16 +3280,19 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>13</v>
       </c>
@@ -2692,16 +3300,19 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>13</v>
       </c>
@@ -2709,16 +3320,19 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>13</v>
       </c>
@@ -2726,16 +3340,19 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>14</v>
       </c>
@@ -2743,16 +3360,19 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>14</v>
       </c>
@@ -2760,16 +3380,19 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>14</v>
       </c>
@@ -2777,16 +3400,19 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>15</v>
       </c>
@@ -2794,16 +3420,19 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>15</v>
       </c>
@@ -2811,16 +3440,19 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>15</v>
       </c>
@@ -2828,13 +3460,16 @@
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/conversation/Past-Simple.xlsx
+++ b/conversation/Past-Simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB0978B-9C2B-43C1-88DD-2A510D076924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4DB962-9B96-43A1-95B6-B115F08FFE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{689C561B-C729-4F8B-9A5C-3D5BDC676F3F}"/>
   </bookViews>
@@ -1488,13 +1488,13 @@
     <t>error type</t>
   </si>
   <si>
-    <t>Grammar structure</t>
-  </si>
-  <si>
-    <t>Verb</t>
-  </si>
-  <si>
-    <t>No-error</t>
+    <t>grammar strucure</t>
+  </si>
+  <si>
+    <t>verb error</t>
+  </si>
+  <si>
+    <t>no error</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1856,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2012,15 +2012,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2034,17 +2025,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -2096,7 +2076,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2116,19 +2096,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2508,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0262A93E-D9F5-496F-A9AD-80A6B1082B48}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2564,11 +2538,11 @@
       <c r="I2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <v>1</v>
       </c>
       <c r="K2" s="4">
-        <f>COUNTIF(F:F, 1)</f>
+        <f>COUNTIF(F:F, J2)</f>
         <v>18</v>
       </c>
     </row>
@@ -2594,11 +2568,11 @@
       <c r="I3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="10">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6">
-        <f>COUNTIF(F:F, 2)</f>
+      <c r="J3" s="8">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <f>COUNTIF(F:F, J3)</f>
         <v>18</v>
       </c>
     </row>
@@ -2621,14 +2595,14 @@
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>3</v>
       </c>
-      <c r="K4" s="8">
-        <f>COUNTIF(F:F, 3)</f>
+      <c r="K4" s="4">
+        <f>COUNTIF(F:F, J4)</f>
         <v>9</v>
       </c>
     </row>

--- a/conversation/Past-Simple.xlsx
+++ b/conversation/Past-Simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4DB962-9B96-43A1-95B6-B115F08FFE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D1223E-A133-40D8-86E2-B498358E0296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{689C561B-C729-4F8B-9A5C-3D5BDC676F3F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -74,15 +74,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>do</t>
-  </si>
-  <si>
     <t>did</t>
   </si>
   <si>
-    <t>hang</t>
-  </si>
-  <si>
     <t>hung</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>preparing</t>
   </si>
   <si>
-    <t>gone</t>
-  </si>
-  <si>
     <t>went</t>
   </si>
   <si>
@@ -826,9 +817,6 @@
     <t>spent</t>
   </si>
   <si>
-    <t>spend</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">My sister </t>
     </r>
@@ -1486,15 +1474,6 @@
   </si>
   <si>
     <t>error type</t>
-  </si>
-  <si>
-    <t>grammar strucure</t>
-  </si>
-  <si>
-    <t>verb error</t>
-  </si>
-  <si>
-    <t>no error</t>
   </si>
 </sst>
 </file>
@@ -2482,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0262A93E-D9F5-496F-A9AD-80A6B1082B48}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="129" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2513,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -2524,27 +2503,20 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>69</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <f>COUNTIF(F:F, J2)</f>
-        <v>18</v>
-      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -2554,27 +2526,20 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="8">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4">
-        <f>COUNTIF(F:F, J3)</f>
-        <v>18</v>
-      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2584,27 +2549,20 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="9">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4">
-        <f>COUNTIF(F:F, J4)</f>
-        <v>9</v>
-      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -2614,13 +2572,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -2636,8 +2594,8 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
+      <c r="D6" s="2">
+        <v>-1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -2654,10 +2612,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -2674,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -2694,13 +2652,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2714,13 +2672,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -2734,13 +2692,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -2754,13 +2712,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -2774,13 +2732,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -2794,10 +2752,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -2854,13 +2812,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2">
         <v>2</v>
@@ -2874,13 +2832,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2894,13 +2852,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2">
         <v>2</v>
@@ -2914,13 +2872,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F20" s="2">
         <v>2</v>
@@ -2934,13 +2892,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -2974,13 +2932,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F23" s="2">
         <v>2</v>
@@ -2994,13 +2952,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -3014,13 +2972,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F25" s="2">
         <v>2</v>
@@ -3034,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2">
         <v>2</v>
@@ -3054,13 +3012,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -3074,13 +3032,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -3094,13 +3052,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2">
         <v>2</v>
@@ -3114,13 +3072,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F30" s="2">
         <v>2</v>
@@ -3134,13 +3092,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -3154,13 +3112,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
@@ -3194,13 +3152,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -3214,13 +3172,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
@@ -3254,13 +3212,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -3274,13 +3232,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2">
         <v>2</v>
@@ -3294,13 +3252,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -3314,13 +3272,13 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -3334,13 +3292,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2">
         <v>2</v>
@@ -3354,13 +3312,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3374,13 +3332,13 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2">
         <v>2</v>
@@ -3394,13 +3352,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2">
         <v>2</v>
@@ -3414,7 +3372,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>12</v>
